--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4250827.137744857</v>
+        <v>4248946.957974529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>116.3601298583506</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.25292425643923</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>151.7213954847318</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>190.6440902478826</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.461970681989468</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>110.7937263796633</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.92600812502346</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>85.50770191957309</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4898845065121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.75377031702865</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>105.2253177460333</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>207.5440020263834</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578919</v>
+        <v>22.9807599444728</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326779</v>
@@ -2305,7 +2305,7 @@
         <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.41761368552034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>189.4081449854701</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>91.46935119348096</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>111.452274795812</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>70.41761368552054</v>
+        <v>26.54790520245047</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578919</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835438</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>550.6130699431321</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>192.3473713363816</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>192.3473713363816</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>185.4018705871782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>171.4784665257691</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>171.4784665257691</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4386,16 +4386,16 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.562656169633</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2543.89515618516</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2543.89515618516</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U5" t="n">
-        <v>2290.133370823251</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V5" t="n">
-        <v>1959.070483479681</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W5" t="n">
-        <v>1606.301828209567</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X5" t="n">
-        <v>1606.301828209567</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1216.162496233755</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,16 +4659,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>63.50052796378816</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>709.1532345052519</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>340.1907175648402</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>340.1907175648402</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1095.753074569374</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,34 +5036,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529985</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529985</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>183.5885075406628</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>183.5885075406628</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267682</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>515.3536117832382</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,16 +5288,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,13 +5355,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>120.5300287366499</v>
@@ -5680,7 +5680,7 @@
         <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969359</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903316</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173148</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V19" t="n">
-        <v>852.2162060235357</v>
+        <v>913.4027961738268</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428492</v>
+        <v>635.1377991931403</v>
       </c>
       <c r="X19" t="n">
-        <v>357.113831201106</v>
+        <v>635.1377991931403</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.4734251138502</v>
+        <v>425.4973931058843</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,10 +5771,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K22" t="n">
-        <v>281.645677793716</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.784955196936</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1463.222409842835</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1250.589167688615</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449753</v>
+        <v>972.6127019584472</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953624</v>
+        <v>729.0803868088345</v>
       </c>
       <c r="W22" t="n">
-        <v>385.183372014676</v>
+        <v>450.8153898281481</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729327</v>
+        <v>233.9780119864049</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>233.9780119864049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
@@ -6154,7 +6154,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,13 +6163,13 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
         <v>1397.590392029363</v>
@@ -6178,19 +6178,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449752</v>
+        <v>993.635791303961</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953624</v>
+        <v>750.1034761543483</v>
       </c>
       <c r="W25" t="n">
-        <v>385.183372014676</v>
+        <v>471.8384791736618</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729329</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729329</v>
+        <v>255.0011013319186</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>189.6103754941048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172993</v>
+        <v>540.287967617299</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1586.358229057536</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1586.358229057536</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U28" t="n">
-        <v>1308.381763327369</v>
+        <v>972.456164143937</v>
       </c>
       <c r="V28" t="n">
-        <v>1064.849448177756</v>
+        <v>972.456164143937</v>
       </c>
       <c r="W28" t="n">
-        <v>786.5844511970696</v>
+        <v>694.1911671632506</v>
       </c>
       <c r="X28" t="n">
-        <v>569.7470733553264</v>
+        <v>477.3537893215074</v>
       </c>
       <c r="Y28" t="n">
-        <v>360.1066672680704</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729328</v>
+        <v>281.0563059452523</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449753</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953626</v>
+        <v>776.158680767682</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146761</v>
+        <v>497.8936837869955</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729328</v>
+        <v>281.0563059452523</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729328</v>
+        <v>281.0563059452523</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7160,64 +7160,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327502</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,34 +7309,34 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,7 +7366,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7400,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>283.6093329825489</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583806</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>286.5092576192346</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>59.91334610335816</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800788</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.0375585391973</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729165</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808142</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>135.8716742520833</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972199</v>
@@ -24142,10 +24142,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>163.8993987134191</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.1263883408631</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.37371517070537</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>137.574821692501</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>85.78855608739585</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>7.909242945079624</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>163.744426277054</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>85.7885560873959</v>
+        <v>129.658264570466</v>
       </c>
       <c r="D31" t="n">
         <v>137.574821692501</v>
@@ -24850,13 +24850,13 @@
         <v>134.3803966972199</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588806</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588804</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>618119.8346172245</v>
+        <v>618119.8346172244</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618119.8346172246</v>
+        <v>618119.8346172245</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618119.8346172246</v>
+        <v>618119.8346172245</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>618119.8346172246</v>
+        <v>618119.8346172245</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="H2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554811</v>
+        <v>768665.9667554812</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="K2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="N2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="M2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="P2" t="n">
         <v>800515.7256176767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="P2" t="n">
-        <v>800515.7256176764</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,31 +26375,31 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060568915</v>
+        <v>8832.521060569105</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="G4" t="n">
-        <v>11549.65615884674</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="H4" t="n">
-        <v>11549.65615884676</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="I4" t="n">
         <v>11549.65615884678</v>
       </c>
       <c r="J4" t="n">
-        <v>11549.6561588468</v>
+        <v>11549.65615884676</v>
       </c>
       <c r="K4" t="n">
-        <v>11549.65615884678</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
@@ -26497,19 +26497,19 @@
         <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619832</v>
+        <v>-20228.28037619856</v>
       </c>
       <c r="C6" t="n">
-        <v>569739.5988383457</v>
+        <v>569739.598838346</v>
       </c>
       <c r="D6" t="n">
         <v>569739.598838346</v>
       </c>
       <c r="E6" t="n">
-        <v>137442.5724069121</v>
+        <v>137345.1132809401</v>
       </c>
       <c r="F6" t="n">
-        <v>662602.6088838078</v>
+        <v>662505.149757836</v>
       </c>
       <c r="G6" t="n">
-        <v>655368.2870710479</v>
+        <v>655286.621022683</v>
       </c>
       <c r="H6" t="n">
-        <v>664200.8081316167</v>
+        <v>664119.1420832522</v>
       </c>
       <c r="I6" t="n">
-        <v>664200.8081316164</v>
+        <v>664119.142083252</v>
       </c>
       <c r="J6" t="n">
-        <v>487777.5889390238</v>
+        <v>487695.9228906592</v>
       </c>
       <c r="K6" t="n">
-        <v>664200.8081316167</v>
+        <v>664119.1420832521</v>
       </c>
       <c r="L6" t="n">
-        <v>617959.5887966107</v>
+        <v>617959.5887966105</v>
       </c>
       <c r="M6" t="n">
-        <v>537664.0856664861</v>
+        <v>537664.0856664863</v>
       </c>
       <c r="N6" t="n">
-        <v>672465.1009003234</v>
+        <v>672465.1009003232</v>
       </c>
       <c r="O6" t="n">
         <v>672465.1009003231</v>
       </c>
       <c r="P6" t="n">
-        <v>672465.100900323</v>
+        <v>672465.1009003234</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I2" t="n">
         <v>11.04065132571139</v>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,40 +26735,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>35.57118638651067</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.168123766492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>22.69431732423971</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>25.80423010977515</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.1226826701053</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>271.1366436925985</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2116351988045</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571136</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571139</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="23">
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>420.3639292382666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>532.8670379385733</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
         <v>189.4242519375121</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137773</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36291,13 +36291,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
@@ -36528,13 +36528,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
@@ -36765,13 +36765,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K31" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37002,13 +37002,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>555.2356492667888</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>493.6026725507592</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809159</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,16 +37634,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,10 +38096,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494724</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
